--- a/氧化态、化合价和离子半径/Ionic Radius.xlsx
+++ b/氧化态、化合价和离子半径/Ionic Radius.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -834,12 +834,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -854,8 +860,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1139,18 +1146,18 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1178,7 +1185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1192,7 +1199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1220,7 +1227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>233</v>
       </c>
@@ -1234,7 +1241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>224</v>
       </c>
@@ -1248,8 +1255,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B8" t="s">
@@ -1262,7 +1269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -1276,7 +1283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1304,7 +1311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1318,7 +1325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +1339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -1346,8 +1353,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B15" t="s">
@@ -1360,7 +1367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -1374,7 +1381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -1388,7 +1395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1402,7 +1409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1416,7 +1423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1430,7 +1437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1444,7 +1451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1458,7 +1465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -1472,7 +1479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -1486,8 +1493,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B25" t="s">
@@ -1500,7 +1507,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -1514,7 +1521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1528,7 +1535,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1542,7 +1549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1556,7 +1563,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1570,7 +1577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>254</v>
       </c>
@@ -1584,7 +1591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>242</v>
       </c>
@@ -1598,7 +1605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>215</v>
       </c>
@@ -1612,7 +1619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -1626,7 +1633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -1640,7 +1647,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -1654,7 +1661,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1668,7 +1675,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1682,7 +1689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1696,7 +1703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -1710,7 +1717,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -1724,7 +1731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>221</v>
       </c>
@@ -1738,7 +1745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>170</v>
       </c>
@@ -1752,7 +1759,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -1766,7 +1773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -1780,7 +1787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -1794,7 +1801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>170</v>
       </c>
@@ -1808,7 +1815,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>257</v>
       </c>
@@ -1822,7 +1829,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>245</v>
       </c>
@@ -1836,7 +1843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>227</v>
       </c>
@@ -1850,7 +1857,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>206</v>
       </c>
@@ -1864,7 +1871,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>203</v>
       </c>
@@ -1878,7 +1885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>192</v>
       </c>
@@ -1892,7 +1899,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -1906,7 +1913,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>180</v>
       </c>
@@ -1920,7 +1927,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>167</v>
       </c>
@@ -1934,7 +1941,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -1948,7 +1955,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>158</v>
       </c>
@@ -1962,7 +1969,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>149</v>
       </c>
@@ -1976,7 +1983,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -1990,7 +1997,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -2004,7 +2011,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>134</v>
       </c>
@@ -2018,7 +2025,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -2032,7 +2039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -2046,7 +2053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -2060,7 +2067,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -2074,7 +2081,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2088,7 +2095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -2102,7 +2109,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -2130,7 +2137,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -2144,7 +2151,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>57</v>
       </c>
@@ -2158,7 +2165,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>122</v>
       </c>
@@ -2172,7 +2179,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>195</v>
       </c>
@@ -2186,7 +2193,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>239</v>
       </c>
@@ -2200,7 +2207,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>218</v>
       </c>
@@ -2214,7 +2221,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>200</v>
       </c>
@@ -2228,7 +2235,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>260</v>
       </c>
@@ -2242,7 +2249,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>248</v>
       </c>
@@ -2256,7 +2263,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>236</v>
       </c>
@@ -2270,7 +2277,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>212</v>
       </c>
@@ -2284,7 +2291,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>177</v>
       </c>
@@ -2298,7 +2305,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -2312,7 +2319,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -2326,7 +2333,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>105</v>
       </c>
@@ -2340,7 +2347,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>137</v>
       </c>
@@ -2354,7 +2361,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>183</v>
       </c>
@@ -2368,7 +2375,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -2382,7 +2389,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>164</v>
       </c>
@@ -2396,7 +2403,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>155</v>
       </c>
@@ -2410,7 +2417,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>152</v>
       </c>
@@ -2424,7 +2431,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>209</v>
       </c>
@@ -2456,9 +2463,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>263</v>
       </c>
